--- a/public/files/PLANTILLA_CARGA.xlsx
+++ b/public/files/PLANTILLA_CARGA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\vee2-dev\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{524E9D1C-6D9C-4EA1-9121-DCF4E4BD605F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7923F2B0-7EDF-4D77-AA9C-B727B59696CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ABEAA437-5506-4CC6-8DAC-91ACDDF0F71B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" xr2:uid="{ABEAA437-5506-4CC6-8DAC-91ACDDF0F71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,81 +20,92 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
-  <si>
-    <t>TEMA DE PRUEBA 1</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 2</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 3</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 4</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 5</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 6</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 7</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>ACTA INICIAL DE TEMAS</t>
   </si>
   <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
     <t>ACTA</t>
   </si>
   <si>
-    <t>NOMBRE_PADRE</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 9</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 10</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 11</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 12</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 13</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 14</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 15</t>
-  </si>
-  <si>
-    <t>TEMA DE PRUEBA 16</t>
+    <t>TEMA PRINCIPAL</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO</t>
+  </si>
+  <si>
+    <t>TEMA PRINCIPAL 1</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 1</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 2</t>
+  </si>
+  <si>
+    <t>TEMA PRINCIPAL 2</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 3</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 4</t>
+  </si>
+  <si>
+    <t>TEMA PRINCIPAL 3</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 5</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 6</t>
+  </si>
+  <si>
+    <t>TEMA PRINCIPAL 4</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 7</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 8</t>
+  </si>
+  <si>
+    <t>TEMA PRINCIPAL 5</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 9</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 10</t>
+  </si>
+  <si>
+    <t>TEMA PRINCIPAL 6</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 11</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 12</t>
+  </si>
+  <si>
+    <t>TEMA PRINCIPAL 7</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 13</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 14</t>
+  </si>
+  <si>
+    <t>TEMA PRINCIPAL 8</t>
+  </si>
+  <si>
+    <t>TEMA SECUNDARIO 15</t>
   </si>
 </sst>
 </file>
@@ -455,180 +466,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0484B29D-86E3-4A66-B7F3-8FD4254F2333}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.84375" customWidth="1"/>
+    <col min="2" max="2" width="26.765625" customWidth="1"/>
+    <col min="3" max="3" width="26.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
